--- a/examples_not_wip.xlsx
+++ b/examples_not_wip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hobly\GitProjects\sklearn-docstring-refs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06E534FA-C97E-479E-80AE-45E441D9F6E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAB1B5EA-1E80-47C7-B56D-841C8CEF250A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1777,7 +1777,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.249977111117893"/>
+        <fgColor theme="1" tint="0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2131,7 +2131,7 @@
   <dimension ref="A1:F130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2204,23 +2204,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.4">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="2">
         <v>1</v>
       </c>
     </row>
@@ -2244,23 +2244,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.4">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:6" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.4">
+      <c r="A6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="6">
         <v>1</v>
       </c>
     </row>
